--- a/data/input/absenteeism_data_40.xlsx
+++ b/data/input/absenteeism_data_40.xlsx
@@ -476,185 +476,185 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10559</v>
+        <v>6425</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marina Vieira</t>
+          <t>Enzo Nogueira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G2" t="n">
-        <v>6435.95</v>
+        <v>7568.32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61634</v>
+        <v>23355</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Nathan Pereira</t>
+          <t>Valentina da Paz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45093</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>7331.06</v>
+        <v>9243.879999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>95656</v>
+        <v>11398</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nicolas Caldeira</t>
+          <t>Sr. Pedro Ramos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45102</v>
       </c>
       <c r="G4" t="n">
-        <v>7591.4</v>
+        <v>9160.26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>64875</v>
+        <v>37130</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amanda Vieira</t>
+          <t>Diego Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45078</v>
       </c>
       <c r="G5" t="n">
-        <v>11421.36</v>
+        <v>5847.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>65373</v>
+        <v>77213</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>André Silva</t>
+          <t>João Miguel Correia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45090</v>
+        <v>45101</v>
       </c>
       <c r="G6" t="n">
-        <v>10068.43</v>
+        <v>11435.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>27185</v>
+        <v>71839</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Thales Castro</t>
+          <t>Guilherme Costa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
         <v>3</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45089</v>
       </c>
       <c r="G7" t="n">
-        <v>9060.66</v>
+        <v>7760.85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>85424</v>
+        <v>65055</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Ana Lívia Monteiro</t>
+          <t>Nicolas Ramos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,26 +664,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45094</v>
+        <v>45098</v>
       </c>
       <c r="G8" t="n">
-        <v>7306.7</v>
+        <v>7082.67</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>82436</v>
+        <v>54156</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Caroline Moreira</t>
+          <t>Kamilly Novaes</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -693,75 +693,75 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45090</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>11444.94</v>
+        <v>4220.26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>41457</v>
+        <v>34066</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sra. Alana Nogueira</t>
+          <t>Ana Lívia Caldeira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45091</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>4810.63</v>
+        <v>3078.89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>66515</v>
+        <v>31363</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Emanuel Freitas</t>
+          <t>Kaique Martins</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="G11" t="n">
-        <v>7348.26</v>
+        <v>6969.3</v>
       </c>
     </row>
   </sheetData>
